--- a/src/main/java/files/Data.xlsx
+++ b/src/main/java/files/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelliJ\PDFProject_2.0\src\main\java\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CEC714-10B6-41D1-BAAB-8C6573E4B491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B56E4C9-691F-431B-B9C8-4AD0C9E6D503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{65A5DB5C-6C63-41AA-95C1-877B328348E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>PATH 1</t>
   </si>
@@ -454,8 +454,8 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>

--- a/src/main/java/files/Data.xlsx
+++ b/src/main/java/files/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelliJ\PDFProject_2.0\src\main\java\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B56E4C9-691F-431B-B9C8-4AD0C9E6D503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6A9D87-66F4-4300-8137-C66076D9EC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{65A5DB5C-6C63-41AA-95C1-877B328348E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>PATH 1</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>File 5</t>
-  </si>
-  <si>
-    <t>1-2</t>
   </si>
 </sst>
 </file>
@@ -416,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E1335-3133-451A-BF4B-1C3E093541A2}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -427,7 +424,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -454,14 +451,10 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -472,9 +465,26 @@
         <v>8</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="K4">
         <v>2</v>
       </c>
     </row>

--- a/src/main/java/files/Data.xlsx
+++ b/src/main/java/files/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelliJ\PDFProject_2.0\src\main\java\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6A9D87-66F4-4300-8137-C66076D9EC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1933641-B421-4D04-8262-B2686AA6BE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{65A5DB5C-6C63-41AA-95C1-877B328348E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>PATH 1</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E1335-3133-451A-BF4B-1C3E093541A2}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,36 +455,19 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4">
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="K3">
         <v>2</v>
       </c>
     </row>

--- a/src/main/java/files/Data.xlsx
+++ b/src/main/java/files/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelliJ\PDFProject_2.0\src\main\java\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1933641-B421-4D04-8262-B2686AA6BE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C8160C-0B93-4387-BBED-ECFE2AE4D904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{65A5DB5C-6C63-41AA-95C1-877B328348E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>PATH 1</t>
   </si>
@@ -48,10 +48,19 @@
     <t>E:/Sample/new/2.docx</t>
   </si>
   <si>
-    <t>File 4</t>
-  </si>
-  <si>
     <t>File 5</t>
+  </si>
+  <si>
+    <t>C:\Users\JAY\Downloads\ALL-20887a (09-19) Chubb Producer Compensation Practices and Policies.doc</t>
+  </si>
+  <si>
+    <t>C:\Users\JAY\Downloads\H28255763 001 NB.pdf</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -416,7 +425,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -443,16 +452,18 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="G3" s="1" t="s">
@@ -462,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>2</v>

--- a/src/main/java/files/Data.xlsx
+++ b/src/main/java/files/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelliJ\PDFProject_2.0\src\main\java\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C8160C-0B93-4387-BBED-ECFE2AE4D904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1986A3B-3A60-4F88-B74B-0286BFA2CE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{65A5DB5C-6C63-41AA-95C1-877B328348E0}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>File 5</t>
   </si>
   <si>
-    <t>C:\Users\JAY\Downloads\ALL-20887a (09-19) Chubb Producer Compensation Practices and Policies.doc</t>
-  </si>
-  <si>
     <t>C:\Users\JAY\Downloads\H28255763 001 NB.pdf</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>E:\Sample\new\input.pdf</t>
   </si>
 </sst>
 </file>
@@ -452,17 +452,17 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">

--- a/src/main/java/files/Data.xlsx
+++ b/src/main/java/files/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelliJ\PDFProject_2.0\src\main\java\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A18A604-7201-45D9-B1C3-07B1C964BB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7CCCB5-4A3A-4ECE-A76D-FE229AE397EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{65A5DB5C-6C63-41AA-95C1-877B328348E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>PATH 1</t>
   </si>
@@ -51,9 +51,6 @@
     <t>File 5</t>
   </si>
   <si>
-    <t>Form</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -61,13 +58,19 @@
   </si>
   <si>
     <t>E:\Sample\new\form.pdf</t>
+  </si>
+  <si>
+    <t>Form\\1</t>
+  </si>
+  <si>
+    <t>Form\\2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +83,12 @@
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E1335-3133-451A-BF4B-1C3E093541A2}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,20 +461,29 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
@@ -482,7 +500,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:11">
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/src/main/java/files/Data.xlsx
+++ b/src/main/java/files/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelliJ\PDFProject_2.0\src\main\java\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7CCCB5-4A3A-4ECE-A76D-FE229AE397EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48197684-FF47-48E6-93A6-5DC48BC831E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{65A5DB5C-6C63-41AA-95C1-877B328348E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>PATH 1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>E:/Sample/new/2.docx</t>
-  </si>
-  <si>
-    <t>File 5</t>
   </si>
   <si>
     <t>2</t>
@@ -434,7 +431,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,21 +456,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>5</v>
@@ -482,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -491,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -502,17 +484,17 @@
     </row>
     <row r="4" spans="1:11">
       <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" t="s">
         <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/files/Data.xlsx
+++ b/src/main/java/files/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelliJ\PDFProject_2.0\src\main\java\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48197684-FF47-48E6-93A6-5DC48BC831E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74496E8-A028-4519-AA77-6297F05DDFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{65A5DB5C-6C63-41AA-95C1-877B328348E0}"/>
+    <workbookView xWindow="0" yWindow="375" windowWidth="20490" windowHeight="9825" xr2:uid="{65A5DB5C-6C63-41AA-95C1-877B328348E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>PATH 1</t>
   </si>
@@ -431,7 +431,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,16 +456,24 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>

--- a/src/main/java/files/Data.xlsx
+++ b/src/main/java/files/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelliJ\PDFProject_2.0\src\main\java\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74496E8-A028-4519-AA77-6297F05DDFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5013580C-14B1-44B8-9E0F-39EC41B3B548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="375" windowWidth="20490" windowHeight="9825" xr2:uid="{65A5DB5C-6C63-41AA-95C1-877B328348E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{65A5DB5C-6C63-41AA-95C1-877B328348E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>PATH 1</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Form\\2</t>
+  </si>
+  <si>
+    <t>large\\1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>E:/Sample/new/5.docx</t>
+  </si>
+  <si>
+    <t>E:/Sample/new/6.docx</t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -457,23 +469,32 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
@@ -491,6 +512,19 @@
       </c>
     </row>
     <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
